--- a/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F271E1D2-CE3C-45F5-87A2-CEA208F991AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345EC612-967E-435D-A1C1-4BFDD8BA4285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="1305" windowWidth="24420" windowHeight="14295" tabRatio="804" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1230" windowWidth="24420" windowHeight="14295" tabRatio="804" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="157">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -661,6 +661,10 @@
     <t>ShopID</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>wood_rod_normal</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -6179,10 +6183,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DBDC14-7E25-4116-BA5C-8148F52CCF05}">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6262,7 +6266,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A66" si="0">ROW()-2+10000</f>
+        <f t="shared" ref="A3:A67" si="0">ROW()-2+10000</f>
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7268,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="G33">
         <v>75</v>
@@ -7301,7 +7305,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G34">
         <v>50</v>
@@ -7322,7 +7326,7 @@
         <v>10033</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -7334,13 +7338,13 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="G35">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -7355,7 +7359,7 @@
         <v>10034</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -7367,13 +7371,13 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G36">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -7388,7 +7392,7 @@
         <v>10035</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -7400,13 +7404,13 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="G37">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -7421,7 +7425,7 @@
         <v>10036</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -7433,13 +7437,13 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G38">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -7454,7 +7458,7 @@
         <v>10037</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -7466,13 +7470,13 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="G39">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -7487,7 +7491,7 @@
         <v>10038</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -7499,13 +7503,13 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="G40">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -7520,25 +7524,25 @@
         <v>10039</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>500</v>
+        <v>50000</v>
       </c>
       <c r="G41">
-        <v>250</v>
+        <v>25000</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -7553,7 +7557,7 @@
         <v>10040</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -7565,10 +7569,10 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G42">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -7586,7 +7590,7 @@
         <v>10041</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -7598,10 +7602,10 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G43">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -7619,7 +7623,7 @@
         <v>10042</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -7631,13 +7635,13 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G44">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -7652,7 +7656,7 @@
         <v>10043</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -7664,13 +7668,13 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="G45">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -7685,7 +7689,7 @@
         <v>10044</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -7697,10 +7701,10 @@
         <v>0</v>
       </c>
       <c r="F46">
+        <v>3000</v>
+      </c>
+      <c r="G46">
         <v>1500</v>
-      </c>
-      <c r="G46">
-        <v>750</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -7718,7 +7722,7 @@
         <v>10045</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -7736,7 +7740,7 @@
         <v>750</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -7751,7 +7755,7 @@
         <v>10046</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -7763,10 +7767,10 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="G48">
-        <v>5000</v>
+        <v>750</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -7784,7 +7788,7 @@
         <v>10047</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -7796,13 +7800,13 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
@@ -7817,7 +7821,7 @@
         <v>10048</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -7829,13 +7833,13 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G50">
-        <v>2500</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>2000</v>
+        <v>4</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
@@ -7850,7 +7854,7 @@
         <v>10049</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -7883,7 +7887,7 @@
         <v>10050</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -7895,10 +7899,10 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="G52">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="H52">
         <v>2000</v>
@@ -7916,25 +7920,25 @@
         <v>10051</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>100</v>
+        <v>7500</v>
       </c>
       <c r="G53">
-        <v>50</v>
+        <v>3750</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
@@ -7949,7 +7953,7 @@
         <v>10052</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -7961,10 +7965,10 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G54">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -7982,7 +7986,7 @@
         <v>10053</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -7994,10 +7998,10 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G55">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -8015,7 +8019,7 @@
         <v>10054</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -8027,10 +8031,10 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G56">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -8048,7 +8052,7 @@
         <v>10055</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -8060,10 +8064,10 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="G57">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -8081,7 +8085,7 @@
         <v>10056</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -8093,10 +8097,10 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G58">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -8114,7 +8118,7 @@
         <v>10057</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -8126,10 +8130,10 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G59">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -8147,7 +8151,7 @@
         <v>10058</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -8159,10 +8163,10 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G60">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -8180,7 +8184,7 @@
         <v>10059</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -8192,13 +8196,13 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G61">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
@@ -8213,7 +8217,7 @@
         <v>10060</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -8231,7 +8235,7 @@
         <v>150</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
@@ -8246,7 +8250,7 @@
         <v>10061</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -8258,13 +8262,13 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G63">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -8279,7 +8283,7 @@
         <v>10062</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -8291,13 +8295,13 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G64">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
@@ -8312,7 +8316,7 @@
         <v>10063</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -8324,10 +8328,10 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G65">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -8345,7 +8349,7 @@
         <v>10064</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -8363,7 +8367,7 @@
         <v>150</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="b">
         <v>0</v>
@@ -8374,11 +8378,11 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f t="shared" ref="A67:A76" si="1">ROW()-2+10000</f>
+        <f t="shared" si="0"/>
         <v>10065</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -8390,10 +8394,10 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G67">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -8407,11 +8411,11 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A68:A77" si="1">ROW()-2+10000</f>
         <v>10066</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -8423,10 +8427,10 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G68">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -8444,7 +8448,7 @@
         <v>10067</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -8456,13 +8460,13 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G69">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="b">
         <v>0</v>
@@ -8477,7 +8481,7 @@
         <v>10068</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -8489,13 +8493,13 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G70">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70" t="b">
         <v>0</v>
@@ -8510,7 +8514,7 @@
         <v>10069</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -8522,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="G71">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="b">
         <v>0</v>
@@ -8543,7 +8547,7 @@
         <v>10070</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -8555,13 +8559,13 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="G72">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="b">
         <v>0</v>
@@ -8576,7 +8580,7 @@
         <v>10071</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -8588,13 +8592,13 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="G73">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I73" t="b">
         <v>0</v>
@@ -8609,7 +8613,7 @@
         <v>10072</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -8621,10 +8625,10 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G74">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -8642,7 +8646,7 @@
         <v>10073</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -8675,7 +8679,7 @@
         <v>10074</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -8687,10 +8691,10 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G76">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H76">
         <v>3</v>
@@ -8699,6 +8703,39 @@
         <v>0</v>
       </c>
       <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>10075</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>700</v>
+      </c>
+      <c r="G77">
+        <v>350</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345EC612-967E-435D-A1C1-4BFDD8BA4285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1FA4C5-82D3-4870-B6B1-C1B1379452DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1230" windowWidth="24420" windowHeight="14295" tabRatio="804" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="1005" windowWidth="24420" windowHeight="14295" tabRatio="804" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -6185,8 +6185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DBDC14-7E25-4116-BA5C-8148F52CCF05}">
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7311,7 +7311,7 @@
         <v>50</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>50</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1FA4C5-82D3-4870-B6B1-C1B1379452DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01CBAD0-8FBE-4CA2-BC86-C3C44D475868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="1005" windowWidth="24420" windowHeight="14295" tabRatio="804" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="585" windowWidth="24420" windowHeight="14295" tabRatio="804" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -6185,8 +6185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DBDC14-7E25-4116-BA5C-8148F52CCF05}">
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01CBAD0-8FBE-4CA2-BC86-C3C44D475868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC50F3B-5235-4F6C-A6AD-7661F40C6D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="585" windowWidth="24420" windowHeight="14295" tabRatio="804" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2955" yWindow="720" windowWidth="24420" windowHeight="14295" tabRatio="804" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="158">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -665,6 +665,10 @@
     <t>wood_rod_normal</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>kyorikiko</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -6186,7 +6190,7 @@
   <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6354,7 +6358,7 @@
         <v>50</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -6519,7 +6523,7 @@
         <v>15</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -6552,7 +6556,7 @@
         <v>100</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -6585,7 +6589,7 @@
         <v>600</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -7014,7 +7018,7 @@
         <v>40</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -7047,7 +7051,7 @@
         <v>50</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -8070,7 +8074,7 @@
         <v>125</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
@@ -8301,7 +8305,7 @@
         <v>400</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
@@ -11283,7 +11287,7 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A76"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11334,7 +11338,7 @@
         <v>30000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -11346,10 +11350,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -11847,7 +11851,7 @@
         <v>50</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -11880,7 +11884,7 @@
         <v>50</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -11913,7 +11917,7 @@
         <v>50</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -11946,7 +11950,7 @@
         <v>50</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -11979,7 +11983,7 @@
         <v>50</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -12012,7 +12016,7 @@
         <v>50</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -12177,7 +12181,7 @@
         <v>35</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC50F3B-5235-4F6C-A6AD-7661F40C6D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1DDA63-BD09-42B1-B695-CBCD7BEF7D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="720" windowWidth="24420" windowHeight="14295" tabRatio="804" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="870" windowWidth="24420" windowHeight="14295" tabRatio="804" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="160">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -667,6 +667,14 @@
   </si>
   <si>
     <t>kyorikiko</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wood_rod_good</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>whisk_silver</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6187,10 +6195,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DBDC14-7E25-4116-BA5C-8148F52CCF05}">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6270,7 +6278,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A67" si="0">ROW()-2+10000</f>
+        <f t="shared" ref="A3:A64" si="0">ROW()-2+10000</f>
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7249,7 +7257,7 @@
         <v>6</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -7447,7 +7455,7 @@
         <v>750</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -7513,7 +7521,7 @@
         <v>10000</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -7546,7 +7554,7 @@
         <v>25000</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -7759,7 +7767,7 @@
         <v>10046</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -7771,13 +7779,13 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1500</v>
+        <v>10</v>
       </c>
       <c r="G48">
-        <v>750</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -7792,7 +7800,7 @@
         <v>10047</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -7804,13 +7812,13 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G49">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
@@ -7825,7 +7833,7 @@
         <v>10048</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -7837,13 +7845,13 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>2500</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>2000</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
@@ -7858,7 +7866,7 @@
         <v>10049</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -7870,10 +7878,10 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="G51">
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="H51">
         <v>2000</v>
@@ -7891,25 +7899,25 @@
         <v>10050</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="G52">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="H52">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
@@ -7924,25 +7932,25 @@
         <v>10051</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
         <v>150</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>6</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>7500</v>
-      </c>
       <c r="G53">
-        <v>3750</v>
+        <v>75</v>
       </c>
       <c r="H53">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
@@ -7957,7 +7965,7 @@
         <v>10052</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -7969,10 +7977,10 @@
         <v>0</v>
       </c>
       <c r="F54">
+        <v>200</v>
+      </c>
+      <c r="G54">
         <v>100</v>
-      </c>
-      <c r="G54">
-        <v>50</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -7990,7 +7998,7 @@
         <v>10053</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -8002,13 +8010,13 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G55">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="b">
         <v>0</v>
@@ -8023,7 +8031,7 @@
         <v>10054</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -8035,10 +8043,10 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G56">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -8056,7 +8064,7 @@
         <v>10055</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -8068,13 +8076,13 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G57">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
@@ -8089,7 +8097,7 @@
         <v>10056</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -8122,7 +8130,7 @@
         <v>10057</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -8134,13 +8142,13 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G59">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
@@ -8155,7 +8163,7 @@
         <v>10058</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -8167,10 +8175,10 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="G60">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -8188,7 +8196,7 @@
         <v>10059</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -8200,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="G61">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -8221,7 +8229,7 @@
         <v>10060</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -8233,13 +8241,13 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G62">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
@@ -8254,7 +8262,7 @@
         <v>10061</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -8287,7 +8295,7 @@
         <v>10062</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -8299,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G64">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
@@ -8316,11 +8324,11 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A65:A74" si="1">ROW()-2+10000</f>
         <v>10063</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -8332,13 +8340,13 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G65">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
@@ -8349,11 +8357,11 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10064</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -8365,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G66">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="b">
         <v>0</v>
@@ -8382,11 +8390,11 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10065</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -8398,13 +8406,13 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="G67">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="b">
         <v>0</v>
@@ -8415,11 +8423,11 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f t="shared" ref="A68:A77" si="1">ROW()-2+10000</f>
+        <f t="shared" si="1"/>
         <v>10066</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -8431,13 +8439,13 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="G68">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="b">
         <v>0</v>
@@ -8452,7 +8460,7 @@
         <v>10067</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -8464,10 +8472,10 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G69">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -8485,7 +8493,7 @@
         <v>10068</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -8497,13 +8505,13 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G70">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="b">
         <v>0</v>
@@ -8518,7 +8526,7 @@
         <v>10069</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -8530,10 +8538,10 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G71">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -8551,7 +8559,7 @@
         <v>10070</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -8563,10 +8571,10 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G72">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -8584,7 +8592,7 @@
         <v>10071</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -8596,13 +8604,13 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="G73">
-        <v>5000</v>
+        <v>250</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="b">
         <v>0</v>
@@ -8617,7 +8625,7 @@
         <v>10072</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -8629,117 +8637,18 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="G74">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="b">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <f t="shared" si="1"/>
-        <v>10073</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>500</v>
-      </c>
-      <c r="G75">
-        <v>250</v>
-      </c>
-      <c r="H75">
-        <v>3</v>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <f t="shared" si="1"/>
-        <v>10074</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>500</v>
-      </c>
-      <c r="G76">
-        <v>250</v>
-      </c>
-      <c r="H76">
-        <v>3</v>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <f t="shared" si="1"/>
-        <v>10075</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>700</v>
-      </c>
-      <c r="G77">
-        <v>350</v>
-      </c>
-      <c r="H77">
-        <v>3</v>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77">
         <v>1</v>
       </c>
     </row>
@@ -8752,10 +8661,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F083EA-800F-48D3-B24D-32DC46FC256B}">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8802,11 +8711,11 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f>ROW()-2+20000</f>
+        <f t="shared" ref="A2:A6" si="0">ROW()-2+20000</f>
         <v>20000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -8818,13 +8727,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>2</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -8835,26 +8744,26 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A66" si="0">ROW()-2+20000</f>
+        <f t="shared" si="0"/>
         <v>20001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>50</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -8872,7 +8781,7 @@
         <v>20002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -8884,10 +8793,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -8905,25 +8814,25 @@
         <v>20003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>3500</v>
       </c>
       <c r="G5">
         <v>50</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -8938,22 +8847,22 @@
         <v>20004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -8967,29 +8876,29 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A7:A9" si="1">ROW()-2+20000</f>
         <v>20005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -9000,26 +8909,26 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>1300</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>650</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -9033,26 +8942,26 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>3000</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>1500</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -9062,2217 +8971,6 @@
       </c>
       <c r="J9">
         <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>20008</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10">
-        <v>50</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>30</v>
-      </c>
-      <c r="G10">
-        <v>15</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>20009</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11">
-        <v>50</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>200</v>
-      </c>
-      <c r="G11">
-        <v>100</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>20010</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12">
-        <v>50</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1200</v>
-      </c>
-      <c r="G12">
-        <v>600</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>20011</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13">
-        <v>50</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>30</v>
-      </c>
-      <c r="G13">
-        <v>15</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>20012</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <v>50</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>20013</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15">
-        <v>50</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>30</v>
-      </c>
-      <c r="G15">
-        <v>15</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>20014</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>50</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>100</v>
-      </c>
-      <c r="G16">
-        <v>50</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>20015</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>50</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="G17">
-        <v>50</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>20016</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18">
-        <v>50</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>50</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>20017</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19">
-        <v>50</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>50</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>20018</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20">
-        <v>50</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
-      <c r="G20">
-        <v>50</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20019</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21">
-        <v>50</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>50</v>
-      </c>
-      <c r="H21">
-        <v>5</v>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>20020</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22">
-        <v>50</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>10</v>
-      </c>
-      <c r="G22">
-        <v>50</v>
-      </c>
-      <c r="H22">
-        <v>5</v>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>20021</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23">
-        <v>50</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>50</v>
-      </c>
-      <c r="H23">
-        <v>5</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>20022</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24">
-        <v>50</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>25</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>20023</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25">
-        <v>50</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>30</v>
-      </c>
-      <c r="G25">
-        <v>40</v>
-      </c>
-      <c r="H25">
-        <v>5</v>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>20024</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26">
-        <v>50</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>50</v>
-      </c>
-      <c r="G26">
-        <v>50</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>20025</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27">
-        <v>50</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>50</v>
-      </c>
-      <c r="G27">
-        <v>35</v>
-      </c>
-      <c r="H27">
-        <v>5</v>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>20026</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28">
-        <v>50</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>10</v>
-      </c>
-      <c r="G28">
-        <v>50</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>20027</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29">
-        <v>50</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>10</v>
-      </c>
-      <c r="G29">
-        <v>50</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>20028</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30">
-        <v>50</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>10</v>
-      </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>20029</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31">
-        <v>50</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>100</v>
-      </c>
-      <c r="G31">
-        <v>50</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>20030</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32">
-        <v>50</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>12</v>
-      </c>
-      <c r="G32">
-        <v>6</v>
-      </c>
-      <c r="H32">
-        <v>3</v>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>20031</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>150</v>
-      </c>
-      <c r="G33">
-        <v>75</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>20032</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>100</v>
-      </c>
-      <c r="G34">
-        <v>50</v>
-      </c>
-      <c r="H34">
-        <v>2</v>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>20033</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>200</v>
-      </c>
-      <c r="G35">
-        <v>100</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>20034</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>300</v>
-      </c>
-      <c r="G36">
-        <v>150</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>20035</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1500</v>
-      </c>
-      <c r="G37">
-        <v>750</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>20036</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>3000</v>
-      </c>
-      <c r="G38">
-        <v>1500</v>
-      </c>
-      <c r="H38">
-        <v>3</v>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>20037</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>20000</v>
-      </c>
-      <c r="G39">
-        <v>10000</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>20038</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>50000</v>
-      </c>
-      <c r="G40">
-        <v>25000</v>
-      </c>
-      <c r="H40">
-        <v>4</v>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>20039</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>6</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>500</v>
-      </c>
-      <c r="G41">
-        <v>250</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>20040</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>6</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1000</v>
-      </c>
-      <c r="G42">
-        <v>500</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>20041</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>6</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>800</v>
-      </c>
-      <c r="G43">
-        <v>400</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>20042</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>6</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>600</v>
-      </c>
-      <c r="G44">
-        <v>300</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>20043</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>6</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>3000</v>
-      </c>
-      <c r="G45">
-        <v>1500</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>20044</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>6</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1500</v>
-      </c>
-      <c r="G46">
-        <v>750</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>20045</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>6</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1500</v>
-      </c>
-      <c r="G47">
-        <v>750</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>20046</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>6</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>10000</v>
-      </c>
-      <c r="G48">
-        <v>5000</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>20047</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>6</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>10</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>4</v>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>20048</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>6</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>5000</v>
-      </c>
-      <c r="G50">
-        <v>2500</v>
-      </c>
-      <c r="H50">
-        <v>2000</v>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>20049</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>6</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>5000</v>
-      </c>
-      <c r="G51">
-        <v>2500</v>
-      </c>
-      <c r="H51">
-        <v>2000</v>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>20050</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>6</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>7500</v>
-      </c>
-      <c r="G52">
-        <v>3750</v>
-      </c>
-      <c r="H52">
-        <v>2000</v>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>20051</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>100</v>
-      </c>
-      <c r="G53">
-        <v>50</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>20052</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>150</v>
-      </c>
-      <c r="G54">
-        <v>75</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>20053</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>200</v>
-      </c>
-      <c r="G55">
-        <v>100</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>20054</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>250</v>
-      </c>
-      <c r="G56">
-        <v>125</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>20055</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>120</v>
-      </c>
-      <c r="G57">
-        <v>60</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>20056</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>80</v>
-      </c>
-      <c r="G58">
-        <v>40</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>20057</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>120</v>
-      </c>
-      <c r="G59">
-        <v>60</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>20058</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>100</v>
-      </c>
-      <c r="G60">
-        <v>50</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>20059</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>300</v>
-      </c>
-      <c r="G61">
-        <v>150</v>
-      </c>
-      <c r="H61">
-        <v>2</v>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>20060</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>300</v>
-      </c>
-      <c r="G62">
-        <v>150</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>20061</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>800</v>
-      </c>
-      <c r="G63">
-        <v>400</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>20062</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>500</v>
-      </c>
-      <c r="G64">
-        <v>250</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <f t="shared" si="0"/>
-        <v>20063</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>300</v>
-      </c>
-      <c r="G65">
-        <v>150</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>20064</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>300</v>
-      </c>
-      <c r="G66">
-        <v>150</v>
-      </c>
-      <c r="H66">
-        <v>2</v>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <f t="shared" ref="A67:A76" si="1">ROW()-2+20000</f>
-        <v>20065</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>2000</v>
-      </c>
-      <c r="G67">
-        <v>1000</v>
-      </c>
-      <c r="H67">
-        <v>2</v>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <f t="shared" si="1"/>
-        <v>20066</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>500</v>
-      </c>
-      <c r="G68">
-        <v>250</v>
-      </c>
-      <c r="H68">
-        <v>2</v>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <f t="shared" si="1"/>
-        <v>20067</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>1000</v>
-      </c>
-      <c r="G69">
-        <v>500</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <f t="shared" si="1"/>
-        <v>20068</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>1300</v>
-      </c>
-      <c r="G70">
-        <v>650</v>
-      </c>
-      <c r="H70">
-        <v>3</v>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <f t="shared" si="1"/>
-        <v>20069</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>3000</v>
-      </c>
-      <c r="G71">
-        <v>1500</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <f t="shared" si="1"/>
-        <v>20070</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>10000</v>
-      </c>
-      <c r="G72">
-        <v>5000</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <f t="shared" si="1"/>
-        <v>20071</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>1500</v>
-      </c>
-      <c r="G73">
-        <v>750</v>
-      </c>
-      <c r="H73">
-        <v>3</v>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <f t="shared" si="1"/>
-        <v>20072</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>500</v>
-      </c>
-      <c r="G74">
-        <v>250</v>
-      </c>
-      <c r="H74">
-        <v>3</v>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <f t="shared" si="1"/>
-        <v>20073</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>500</v>
-      </c>
-      <c r="G75">
-        <v>250</v>
-      </c>
-      <c r="H75">
-        <v>3</v>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <f t="shared" si="1"/>
-        <v>20074</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>700</v>
-      </c>
-      <c r="G76">
-        <v>350</v>
-      </c>
-      <c r="H76">
-        <v>3</v>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11284,10 +8982,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6001720-9AA1-466F-8E06-D372A3A538C0}">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11367,7 +9065,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A66" si="0">ROW()-2+30000</f>
+        <f>ROW()-2+30000</f>
         <v>30001</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -11400,7 +9098,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30002</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -11433,7 +9131,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30003</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -11455,7 +9153,7 @@
         <v>50</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -11466,11 +9164,11 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -11482,10 +9180,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -11499,11 +9197,11 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -11515,13 +9213,13 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -11532,11 +9230,11 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -11548,10 +9246,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -11565,11 +9263,11 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -11581,13 +9279,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -11598,11 +9296,11 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -11614,13 +9312,13 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -11631,11 +9329,11 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -11647,13 +9345,13 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -11664,11 +9362,11 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -11680,13 +9378,13 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="G12">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -11697,29 +9395,29 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>50</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -11730,26 +9428,26 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>50</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -11763,29 +9461,29 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>50</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -11796,23 +9494,23 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>50</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>50</v>
@@ -11829,11 +9527,11 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -11862,11 +9560,11 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C18">
         <v>50</v>
@@ -11895,11 +9593,11 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="C19">
         <v>50</v>
@@ -11917,7 +9615,7 @@
         <v>50</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -11928,11 +9626,11 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>50</v>
@@ -11947,10 +9645,10 @@
         <v>10</v>
       </c>
       <c r="G20">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -11961,11 +9659,11 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>50</v>
@@ -11977,13 +9675,13 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>50</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -11994,29 +9692,29 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>3000</v>
       </c>
       <c r="G22">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -12027,29 +9725,29 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>151</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G23">
         <v>50</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -12060,29 +9758,29 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G24">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -12093,29 +9791,29 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C25">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="G25">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -12126,29 +9824,29 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C26">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G26">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -12159,26 +9857,26 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="G27">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -12192,26 +9890,26 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G28">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -12225,26 +9923,26 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C29">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="G29">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -12258,29 +9956,29 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="C30">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -12291,26 +9989,26 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30029</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="C31">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G31">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -12324,29 +10022,29 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C32">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>12</v>
+        <v>800</v>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>400</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -12357,29 +10055,29 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30031</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="G33">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -12390,29 +10088,29 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30032</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G34">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -12423,26 +10121,26 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30033</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G35">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -12456,29 +10154,29 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30034</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="G36">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -12489,26 +10187,26 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30035</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G37">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -12522,29 +10220,29 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30036</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="G38">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -12555,26 +10253,26 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30037</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>20000</v>
+        <v>1500</v>
       </c>
       <c r="G39">
-        <v>10000</v>
+        <v>750</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -12588,29 +10286,29 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30038</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="G40">
-        <v>25000</v>
+        <v>250</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -12621,17 +10319,17 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30039</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -12654,26 +10352,26 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+30000</f>
         <v>30040</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G42">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -12682,1128 +10380,6 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>30041</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>6</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>800</v>
-      </c>
-      <c r="G43">
-        <v>400</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>30042</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>6</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>600</v>
-      </c>
-      <c r="G44">
-        <v>300</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>30043</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>6</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>3000</v>
-      </c>
-      <c r="G45">
-        <v>1500</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>30044</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>6</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1500</v>
-      </c>
-      <c r="G46">
-        <v>750</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>30045</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>6</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1500</v>
-      </c>
-      <c r="G47">
-        <v>750</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>30046</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>6</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>10000</v>
-      </c>
-      <c r="G48">
-        <v>5000</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>30047</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>6</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>10</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>4</v>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>30048</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>6</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>5000</v>
-      </c>
-      <c r="G50">
-        <v>2500</v>
-      </c>
-      <c r="H50">
-        <v>2000</v>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>30049</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>6</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>5000</v>
-      </c>
-      <c r="G51">
-        <v>2500</v>
-      </c>
-      <c r="H51">
-        <v>2000</v>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>30050</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>6</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>7500</v>
-      </c>
-      <c r="G52">
-        <v>3750</v>
-      </c>
-      <c r="H52">
-        <v>2000</v>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>30051</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>100</v>
-      </c>
-      <c r="G53">
-        <v>50</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>30052</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>150</v>
-      </c>
-      <c r="G54">
-        <v>75</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>30053</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>200</v>
-      </c>
-      <c r="G55">
-        <v>100</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>30054</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>250</v>
-      </c>
-      <c r="G56">
-        <v>125</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>30055</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>120</v>
-      </c>
-      <c r="G57">
-        <v>60</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>30056</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>80</v>
-      </c>
-      <c r="G58">
-        <v>40</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>30057</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>120</v>
-      </c>
-      <c r="G59">
-        <v>60</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>30058</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>100</v>
-      </c>
-      <c r="G60">
-        <v>50</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>30059</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>300</v>
-      </c>
-      <c r="G61">
-        <v>150</v>
-      </c>
-      <c r="H61">
-        <v>2</v>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>30060</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>300</v>
-      </c>
-      <c r="G62">
-        <v>150</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>30061</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>800</v>
-      </c>
-      <c r="G63">
-        <v>400</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>30062</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>500</v>
-      </c>
-      <c r="G64">
-        <v>250</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <f t="shared" si="0"/>
-        <v>30063</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>300</v>
-      </c>
-      <c r="G65">
-        <v>150</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>30064</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>300</v>
-      </c>
-      <c r="G66">
-        <v>150</v>
-      </c>
-      <c r="H66">
-        <v>2</v>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <f t="shared" ref="A67:A76" si="1">ROW()-2+30000</f>
-        <v>30065</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>2000</v>
-      </c>
-      <c r="G67">
-        <v>1000</v>
-      </c>
-      <c r="H67">
-        <v>2</v>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <f t="shared" si="1"/>
-        <v>30066</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>500</v>
-      </c>
-      <c r="G68">
-        <v>250</v>
-      </c>
-      <c r="H68">
-        <v>2</v>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <f t="shared" si="1"/>
-        <v>30067</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>1000</v>
-      </c>
-      <c r="G69">
-        <v>500</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <f t="shared" si="1"/>
-        <v>30068</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>1300</v>
-      </c>
-      <c r="G70">
-        <v>650</v>
-      </c>
-      <c r="H70">
-        <v>3</v>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <f t="shared" si="1"/>
-        <v>30069</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>3000</v>
-      </c>
-      <c r="G71">
-        <v>1500</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <f t="shared" si="1"/>
-        <v>30070</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>10000</v>
-      </c>
-      <c r="G72">
-        <v>5000</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <f t="shared" si="1"/>
-        <v>30071</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>1500</v>
-      </c>
-      <c r="G73">
-        <v>750</v>
-      </c>
-      <c r="H73">
-        <v>3</v>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <f t="shared" si="1"/>
-        <v>30072</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>500</v>
-      </c>
-      <c r="G74">
-        <v>250</v>
-      </c>
-      <c r="H74">
-        <v>3</v>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <f t="shared" si="1"/>
-        <v>30073</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>500</v>
-      </c>
-      <c r="G75">
-        <v>250</v>
-      </c>
-      <c r="H75">
-        <v>3</v>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <f t="shared" si="1"/>
-        <v>30074</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>700</v>
-      </c>
-      <c r="G76">
-        <v>350</v>
-      </c>
-      <c r="H76">
-        <v>3</v>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76">
         <v>1</v>
       </c>
     </row>
@@ -13816,10 +10392,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4060CA39-02FB-4508-8603-5A906A5C9777}">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13870,25 +10446,25 @@
         <v>40000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -13899,29 +10475,29 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A66" si="0">ROW()-2+40000</f>
+        <f>ROW()-2+40000</f>
         <v>40001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -13932,26 +10508,26 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+40000</f>
         <v>40002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>15000</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>7500</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -13965,29 +10541,29 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+40000</f>
         <v>40003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -13998,26 +10574,26 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+40000</f>
         <v>40004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>1500</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>750</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -14031,29 +10607,29 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+40000</f>
         <v>40005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>20000</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>10000</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -14064,26 +10640,26 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+40000</f>
         <v>40006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>50000</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>25000</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -14097,26 +10673,26 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+40000</f>
         <v>40007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>8000</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -14130,29 +10706,29 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+40000</f>
         <v>40008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -14163,29 +10739,29 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+40000</f>
         <v>40009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -14196,29 +10772,29 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+40000</f>
         <v>40010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="G12">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -14229,29 +10805,29 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+40000</f>
         <v>40011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30</v>
+        <v>7500</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>3750</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -14262,26 +10838,26 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f>ROW()-2+40000</f>
         <v>40012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -14295,29 +10871,29 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A15:A16" si="0">ROW()-2+40000</f>
         <v>40013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -14332,22 +10908,22 @@
         <v>40014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="G16">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -14356,1986 +10932,6 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>40015</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>50</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="G17">
-        <v>50</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>40016</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18">
-        <v>50</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>50</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>40017</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19">
-        <v>50</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>50</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>40018</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20">
-        <v>50</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
-      <c r="G20">
-        <v>50</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>40019</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21">
-        <v>50</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>50</v>
-      </c>
-      <c r="H21">
-        <v>5</v>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>40020</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22">
-        <v>50</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>10</v>
-      </c>
-      <c r="G22">
-        <v>50</v>
-      </c>
-      <c r="H22">
-        <v>5</v>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>40021</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23">
-        <v>50</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>50</v>
-      </c>
-      <c r="H23">
-        <v>5</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>40022</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24">
-        <v>50</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>25</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>40023</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25">
-        <v>50</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>30</v>
-      </c>
-      <c r="G25">
-        <v>40</v>
-      </c>
-      <c r="H25">
-        <v>5</v>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>40024</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26">
-        <v>50</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>50</v>
-      </c>
-      <c r="G26">
-        <v>50</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>40025</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27">
-        <v>50</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>50</v>
-      </c>
-      <c r="G27">
-        <v>35</v>
-      </c>
-      <c r="H27">
-        <v>5</v>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>40026</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28">
-        <v>50</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>10</v>
-      </c>
-      <c r="G28">
-        <v>50</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>40027</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29">
-        <v>50</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>10</v>
-      </c>
-      <c r="G29">
-        <v>50</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>40028</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30">
-        <v>50</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>10</v>
-      </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>40029</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31">
-        <v>50</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>100</v>
-      </c>
-      <c r="G31">
-        <v>50</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>40030</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32">
-        <v>50</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>12</v>
-      </c>
-      <c r="G32">
-        <v>6</v>
-      </c>
-      <c r="H32">
-        <v>3</v>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>40031</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>150</v>
-      </c>
-      <c r="G33">
-        <v>75</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>40032</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>100</v>
-      </c>
-      <c r="G34">
-        <v>50</v>
-      </c>
-      <c r="H34">
-        <v>2</v>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>40033</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>200</v>
-      </c>
-      <c r="G35">
-        <v>100</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>40034</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>300</v>
-      </c>
-      <c r="G36">
-        <v>150</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>40035</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1500</v>
-      </c>
-      <c r="G37">
-        <v>750</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>40036</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>3000</v>
-      </c>
-      <c r="G38">
-        <v>1500</v>
-      </c>
-      <c r="H38">
-        <v>3</v>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>40037</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>20000</v>
-      </c>
-      <c r="G39">
-        <v>10000</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>40038</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>50000</v>
-      </c>
-      <c r="G40">
-        <v>25000</v>
-      </c>
-      <c r="H40">
-        <v>4</v>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>40039</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>6</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>500</v>
-      </c>
-      <c r="G41">
-        <v>250</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>40040</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>6</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1000</v>
-      </c>
-      <c r="G42">
-        <v>500</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>40041</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>6</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>800</v>
-      </c>
-      <c r="G43">
-        <v>400</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>40042</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>6</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>600</v>
-      </c>
-      <c r="G44">
-        <v>300</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>40043</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>6</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>3000</v>
-      </c>
-      <c r="G45">
-        <v>1500</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>40044</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>6</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1500</v>
-      </c>
-      <c r="G46">
-        <v>750</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>40045</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>6</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1500</v>
-      </c>
-      <c r="G47">
-        <v>750</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>40046</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>6</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>10000</v>
-      </c>
-      <c r="G48">
-        <v>5000</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>40047</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>6</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>10</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>4</v>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>40048</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>6</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>5000</v>
-      </c>
-      <c r="G50">
-        <v>2500</v>
-      </c>
-      <c r="H50">
-        <v>2000</v>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>40049</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>6</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>5000</v>
-      </c>
-      <c r="G51">
-        <v>2500</v>
-      </c>
-      <c r="H51">
-        <v>2000</v>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>40050</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>6</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>7500</v>
-      </c>
-      <c r="G52">
-        <v>3750</v>
-      </c>
-      <c r="H52">
-        <v>2000</v>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>40051</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>100</v>
-      </c>
-      <c r="G53">
-        <v>50</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>40052</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>150</v>
-      </c>
-      <c r="G54">
-        <v>75</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>40053</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>200</v>
-      </c>
-      <c r="G55">
-        <v>100</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>40054</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>250</v>
-      </c>
-      <c r="G56">
-        <v>125</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>40055</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>120</v>
-      </c>
-      <c r="G57">
-        <v>60</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>40056</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>80</v>
-      </c>
-      <c r="G58">
-        <v>40</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>40057</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>120</v>
-      </c>
-      <c r="G59">
-        <v>60</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>40058</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>100</v>
-      </c>
-      <c r="G60">
-        <v>50</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>40059</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>300</v>
-      </c>
-      <c r="G61">
-        <v>150</v>
-      </c>
-      <c r="H61">
-        <v>2</v>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>40060</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>300</v>
-      </c>
-      <c r="G62">
-        <v>150</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>40061</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>800</v>
-      </c>
-      <c r="G63">
-        <v>400</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>40062</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>500</v>
-      </c>
-      <c r="G64">
-        <v>250</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <f t="shared" si="0"/>
-        <v>40063</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>300</v>
-      </c>
-      <c r="G65">
-        <v>150</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>40064</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>300</v>
-      </c>
-      <c r="G66">
-        <v>150</v>
-      </c>
-      <c r="H66">
-        <v>2</v>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <f t="shared" ref="A67:A76" si="1">ROW()-2+40000</f>
-        <v>40065</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>2000</v>
-      </c>
-      <c r="G67">
-        <v>1000</v>
-      </c>
-      <c r="H67">
-        <v>2</v>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <f t="shared" si="1"/>
-        <v>40066</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>500</v>
-      </c>
-      <c r="G68">
-        <v>250</v>
-      </c>
-      <c r="H68">
-        <v>2</v>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <f t="shared" si="1"/>
-        <v>40067</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>1000</v>
-      </c>
-      <c r="G69">
-        <v>500</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <f t="shared" si="1"/>
-        <v>40068</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>1300</v>
-      </c>
-      <c r="G70">
-        <v>650</v>
-      </c>
-      <c r="H70">
-        <v>3</v>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <f t="shared" si="1"/>
-        <v>40069</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>3000</v>
-      </c>
-      <c r="G71">
-        <v>1500</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <f t="shared" si="1"/>
-        <v>40070</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>10000</v>
-      </c>
-      <c r="G72">
-        <v>5000</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <f t="shared" si="1"/>
-        <v>40071</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>1500</v>
-      </c>
-      <c r="G73">
-        <v>750</v>
-      </c>
-      <c r="H73">
-        <v>3</v>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <f t="shared" si="1"/>
-        <v>40072</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>500</v>
-      </c>
-      <c r="G74">
-        <v>250</v>
-      </c>
-      <c r="H74">
-        <v>3</v>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <f t="shared" si="1"/>
-        <v>40073</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>500</v>
-      </c>
-      <c r="G75">
-        <v>250</v>
-      </c>
-      <c r="H75">
-        <v>3</v>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <f t="shared" si="1"/>
-        <v>40074</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>700</v>
-      </c>
-      <c r="G76">
-        <v>350</v>
-      </c>
-      <c r="H76">
-        <v>3</v>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1DDA63-BD09-42B1-B695-CBCD7BEF7D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFC8277-9DDB-4D30-A685-E52CEE7D8BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="870" windowWidth="24420" windowHeight="14295" tabRatio="804" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="1215" windowWidth="24420" windowHeight="14295" tabRatio="804" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -6197,7 +6197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DBDC14-7E25-4116-BA5C-8148F52CCF05}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
@@ -8664,7 +8664,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8970,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9032,7 +9032,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f>ROW()-2+30000</f>
+        <f t="shared" ref="A2:A42" si="0">ROW()-2+30000</f>
         <v>30000</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -9065,7 +9065,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30001</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -9098,7 +9098,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30002</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -9131,7 +9131,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30003</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -9164,7 +9164,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30004</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -9197,7 +9197,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30005</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -9230,7 +9230,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30006</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -9263,7 +9263,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30007</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -9296,7 +9296,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30008</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -9329,7 +9329,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30009</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -9362,7 +9362,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30010</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -9395,7 +9395,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30011</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -9428,7 +9428,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30012</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -9461,7 +9461,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30013</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -9494,7 +9494,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30014</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -9527,7 +9527,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30015</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -9560,7 +9560,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30016</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -9593,7 +9593,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30017</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -9626,7 +9626,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30018</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -9659,7 +9659,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30019</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -9692,7 +9692,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30020</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -9725,7 +9725,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30021</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -9758,7 +9758,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30022</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -9791,7 +9791,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30023</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -9824,7 +9824,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30024</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -9857,7 +9857,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30025</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -9890,7 +9890,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30026</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -9923,7 +9923,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30027</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -9956,7 +9956,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30028</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -9989,7 +9989,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30029</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -10022,7 +10022,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30030</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -10055,7 +10055,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30031</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -10088,7 +10088,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30032</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -10121,7 +10121,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30033</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -10154,7 +10154,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30034</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -10187,7 +10187,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30035</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -10220,7 +10220,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30036</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -10253,7 +10253,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30037</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -10286,7 +10286,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30038</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -10319,7 +10319,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30039</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -10352,7 +10352,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f>ROW()-2+30000</f>
+        <f t="shared" si="0"/>
         <v>30040</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -10394,7 +10394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4060CA39-02FB-4508-8603-5A906A5C9777}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -10442,7 +10442,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f>ROW()-2+40000</f>
+        <f t="shared" ref="A2:A14" si="0">ROW()-2+40000</f>
         <v>40000</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -10475,7 +10475,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>ROW()-2+40000</f>
+        <f t="shared" si="0"/>
         <v>40001</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -10508,7 +10508,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f>ROW()-2+40000</f>
+        <f t="shared" si="0"/>
         <v>40002</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -10541,7 +10541,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f>ROW()-2+40000</f>
+        <f t="shared" si="0"/>
         <v>40003</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -10574,7 +10574,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f>ROW()-2+40000</f>
+        <f t="shared" si="0"/>
         <v>40004</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -10607,7 +10607,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f>ROW()-2+40000</f>
+        <f t="shared" si="0"/>
         <v>40005</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -10640,7 +10640,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f>ROW()-2+40000</f>
+        <f t="shared" si="0"/>
         <v>40006</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -10673,7 +10673,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f>ROW()-2+40000</f>
+        <f t="shared" si="0"/>
         <v>40007</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -10706,7 +10706,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f>ROW()-2+40000</f>
+        <f t="shared" si="0"/>
         <v>40008</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -10739,7 +10739,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f>ROW()-2+40000</f>
+        <f t="shared" si="0"/>
         <v>40009</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -10772,7 +10772,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f>ROW()-2+40000</f>
+        <f t="shared" si="0"/>
         <v>40010</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -10805,7 +10805,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f>ROW()-2+40000</f>
+        <f t="shared" si="0"/>
         <v>40011</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -10838,7 +10838,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f>ROW()-2+40000</f>
+        <f t="shared" si="0"/>
         <v>40012</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -10871,7 +10871,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" ref="A15:A16" si="0">ROW()-2+40000</f>
+        <f t="shared" ref="A15:A16" si="1">ROW()-2+40000</f>
         <v>40013</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -10904,7 +10904,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40014</v>
       </c>
       <c r="B16" s="1" t="s">

--- a/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFC8277-9DDB-4D30-A685-E52CEE7D8BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F332DB22-7D64-4CC1-8FE3-C96B27550C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="1215" windowWidth="24420" windowHeight="14295" tabRatio="804" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="1260" windowWidth="24420" windowHeight="14295" tabRatio="804" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="160">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -6195,10 +6195,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DBDC14-7E25-4116-BA5C-8148F52CCF05}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6278,11 +6278,11 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A64" si="0">ROW()-2+10000</f>
+        <f>ROW()-2+10000</f>
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -6294,10 +6294,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -6311,11 +6311,11 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A4:A65" si="0">ROW()-2+10000</f>
         <v>10002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -6327,10 +6327,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -6348,7 +6348,7 @@
         <v>10003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -6360,13 +6360,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>10004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -6393,13 +6393,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -6414,7 +6414,7 @@
         <v>10005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -6426,13 +6426,13 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -6447,7 +6447,7 @@
         <v>10006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -6459,13 +6459,13 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -6480,7 +6480,7 @@
         <v>10007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -6492,10 +6492,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -6513,7 +6513,7 @@
         <v>10008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -6525,13 +6525,13 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -6546,7 +6546,7 @@
         <v>10009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -6558,10 +6558,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -6579,7 +6579,7 @@
         <v>10010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -6591,10 +6591,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="G12">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>10011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C13">
         <v>50</v>
@@ -6624,13 +6624,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30</v>
+        <v>1200</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -6645,7 +6645,7 @@
         <v>10012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="C14">
         <v>50</v>
@@ -6657,13 +6657,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14">
         <v>2</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -6678,7 +6678,7 @@
         <v>10013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -6690,13 +6690,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -6711,7 +6711,7 @@
         <v>10014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -6723,13 +6723,13 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G16">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -6744,25 +6744,25 @@
         <v>10015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>50</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G17">
         <v>50</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -6777,7 +6777,7 @@
         <v>10016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>50</v>
@@ -6810,7 +6810,7 @@
         <v>10017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>50</v>
@@ -6843,7 +6843,7 @@
         <v>10018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>50</v>
@@ -6876,7 +6876,7 @@
         <v>10019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>50</v>
@@ -6894,7 +6894,7 @@
         <v>50</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -6909,7 +6909,7 @@
         <v>10020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>50</v>
@@ -6927,7 +6927,7 @@
         <v>50</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -6942,7 +6942,7 @@
         <v>10021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="C23">
         <v>50</v>
@@ -6975,7 +6975,7 @@
         <v>10022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="C24">
         <v>50</v>
@@ -6990,10 +6990,10 @@
         <v>10</v>
       </c>
       <c r="G24">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -7008,7 +7008,7 @@
         <v>10023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>50</v>
@@ -7020,13 +7020,13 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -7041,7 +7041,7 @@
         <v>10024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C26">
         <v>50</v>
@@ -7053,10 +7053,10 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G26">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -7074,7 +7074,7 @@
         <v>10025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>50</v>
@@ -7089,10 +7089,10 @@
         <v>50</v>
       </c>
       <c r="G27">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -7107,7 +7107,7 @@
         <v>10026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>50</v>
@@ -7119,13 +7119,13 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G28">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -7140,7 +7140,7 @@
         <v>10027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>50</v>
@@ -7173,13 +7173,13 @@
         <v>10028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C30">
         <v>50</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>10</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -7206,7 +7206,7 @@
         <v>10029</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="C31">
         <v>50</v>
@@ -7218,10 +7218,10 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G31">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -7239,7 +7239,7 @@
         <v>10030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>50</v>
@@ -7251,10 +7251,10 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -7272,25 +7272,25 @@
         <v>10031</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>500</v>
+        <v>12</v>
       </c>
       <c r="G33">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -7305,7 +7305,7 @@
         <v>10032</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -7317,10 +7317,10 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G34">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -7338,7 +7338,7 @@
         <v>10033</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G35">
         <v>50</v>
@@ -7371,7 +7371,7 @@
         <v>10034</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -7383,10 +7383,10 @@
         <v>0</v>
       </c>
       <c r="F36">
+        <v>1000</v>
+      </c>
+      <c r="G36">
         <v>200</v>
-      </c>
-      <c r="G36">
-        <v>100</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -7404,7 +7404,7 @@
         <v>10035</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -7416,13 +7416,13 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G37">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>10036</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -7449,10 +7449,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="G38">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -7470,7 +7470,7 @@
         <v>10037</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -7482,10 +7482,10 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G39">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -7503,7 +7503,7 @@
         <v>10038</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -7515,10 +7515,10 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="G40">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -7536,7 +7536,7 @@
         <v>10039</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -7548,10 +7548,10 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="G41">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -7569,25 +7569,25 @@
         <v>10040</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>500</v>
+        <v>50000</v>
       </c>
       <c r="G42">
-        <v>250</v>
+        <v>25000</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>10041</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -7614,10 +7614,10 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G43">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -7635,7 +7635,7 @@
         <v>10042</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -7647,10 +7647,10 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G44">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -7668,7 +7668,7 @@
         <v>10043</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -7680,13 +7680,13 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G45">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -7701,7 +7701,7 @@
         <v>10044</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -7713,13 +7713,13 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="G46">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>10045</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -7746,10 +7746,10 @@
         <v>0</v>
       </c>
       <c r="F47">
+        <v>3000</v>
+      </c>
+      <c r="G47">
         <v>1500</v>
-      </c>
-      <c r="G47">
-        <v>750</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -7767,7 +7767,7 @@
         <v>10046</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -7779,13 +7779,13 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>750</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -7800,7 +7800,7 @@
         <v>10047</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -7812,13 +7812,13 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G49">
-        <v>2500</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>2000</v>
+        <v>4</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
@@ -7833,7 +7833,7 @@
         <v>10048</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -7866,7 +7866,7 @@
         <v>10049</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -7878,10 +7878,10 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="G51">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="H51">
         <v>2000</v>
@@ -7899,25 +7899,25 @@
         <v>10050</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>100</v>
+        <v>7500</v>
       </c>
       <c r="G52">
-        <v>50</v>
+        <v>3750</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
@@ -7932,7 +7932,7 @@
         <v>10051</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -7944,10 +7944,10 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G53">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         <v>10052</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -7977,10 +7977,10 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G54">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -7998,7 +7998,7 @@
         <v>10053</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -8010,13 +8010,13 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G55">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="b">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>10054</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -8043,13 +8043,13 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="G56">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="b">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>10055</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G57">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -8097,7 +8097,7 @@
         <v>10056</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -8109,10 +8109,10 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G58">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -8130,7 +8130,7 @@
         <v>10057</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -8142,13 +8142,13 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="G59">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
@@ -8163,7 +8163,7 @@
         <v>10058</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         <v>150</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>
@@ -8196,7 +8196,7 @@
         <v>10059</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G61">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -8229,7 +8229,7 @@
         <v>10060</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -8241,10 +8241,10 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G62">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -8262,7 +8262,7 @@
         <v>10061</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -8274,10 +8274,10 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G63">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -8295,7 +8295,7 @@
         <v>10062</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -8313,7 +8313,7 @@
         <v>150</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
@@ -8324,11 +8324,11 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
-        <f t="shared" ref="A65:A74" si="1">ROW()-2+10000</f>
+        <f t="shared" si="0"/>
         <v>10063</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -8340,10 +8340,10 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G65">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -8357,11 +8357,11 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A66:A75" si="1">ROW()-2+10000</f>
         <v>10064</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G66">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>10065</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -8406,10 +8406,10 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G67">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -8427,7 +8427,7 @@
         <v>10066</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -8439,10 +8439,10 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G68">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -8460,7 +8460,7 @@
         <v>10067</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -8472,10 +8472,10 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="G69">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -8493,7 +8493,7 @@
         <v>10068</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -8505,10 +8505,10 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="G70">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -8526,7 +8526,7 @@
         <v>10069</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -8538,10 +8538,10 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="G71">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -8559,7 +8559,7 @@
         <v>10070</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -8571,10 +8571,10 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G72">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>10071</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -8625,30 +8625,63 @@
         <v>10072</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>500</v>
+      </c>
+      <c r="G74">
+        <v>250</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>10073</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
         <v>700</v>
       </c>
-      <c r="G74">
+      <c r="G75">
         <v>350</v>
       </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74">
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75">
         <v>1</v>
       </c>
     </row>
@@ -8985,7 +9018,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F332DB22-7D64-4CC1-8FE3-C96B27550C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1AC481-A38C-4B5A-8AF8-E802FC54E92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="1260" windowWidth="24420" windowHeight="14295" tabRatio="804" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24420" windowHeight="14295" tabRatio="804" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -6197,8 +6197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DBDC14-7E25-4116-BA5C-8148F52CCF05}">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8247,7 +8247,7 @@
         <v>400</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1AC481-A38C-4B5A-8AF8-E802FC54E92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C4697B-0206-4185-BE2D-B5CD42F3D2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24420" windowHeight="14295" tabRatio="804" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="360" windowWidth="24420" windowHeight="14295" tabRatio="804" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="161">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -675,6 +675,10 @@
   </si>
   <si>
     <t>whisk_silver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>measuring spoon</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6195,10 +6199,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DBDC14-7E25-4116-BA5C-8148F52CCF05}">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6311,7 +6315,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A65" si="0">ROW()-2+10000</f>
+        <f t="shared" ref="A4:A66" si="0">ROW()-2+10000</f>
         <v>10002</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -7371,7 +7375,7 @@
         <v>10034</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -7383,10 +7387,10 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G36">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -7404,7 +7408,7 @@
         <v>10035</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -7416,10 +7420,10 @@
         <v>0</v>
       </c>
       <c r="F37">
+        <v>1000</v>
+      </c>
+      <c r="G37">
         <v>200</v>
-      </c>
-      <c r="G37">
-        <v>100</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -7437,7 +7441,7 @@
         <v>10036</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -7449,13 +7453,13 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G38">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -7470,7 +7474,7 @@
         <v>10037</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -7482,10 +7486,10 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="G39">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -7503,7 +7507,7 @@
         <v>10038</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -7515,10 +7519,10 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G40">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -7536,7 +7540,7 @@
         <v>10039</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -7548,10 +7552,10 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="G41">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -7569,7 +7573,7 @@
         <v>10040</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -7581,10 +7585,10 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="G42">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -7602,25 +7606,25 @@
         <v>10041</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>500</v>
+        <v>50000</v>
       </c>
       <c r="G43">
-        <v>250</v>
+        <v>25000</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -7635,7 +7639,7 @@
         <v>10042</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -7647,10 +7651,10 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G44">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -7668,7 +7672,7 @@
         <v>10043</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -7680,10 +7684,10 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G45">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -7701,7 +7705,7 @@
         <v>10044</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -7713,13 +7717,13 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G46">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -7734,7 +7738,7 @@
         <v>10045</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -7746,13 +7750,13 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="G47">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -7767,7 +7771,7 @@
         <v>10046</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -7779,10 +7783,10 @@
         <v>0</v>
       </c>
       <c r="F48">
+        <v>3000</v>
+      </c>
+      <c r="G48">
         <v>1500</v>
-      </c>
-      <c r="G48">
-        <v>750</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -7800,7 +7804,7 @@
         <v>10047</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -7812,13 +7816,13 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>750</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
@@ -7833,7 +7837,7 @@
         <v>10048</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -7845,13 +7849,13 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G50">
-        <v>2500</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>2000</v>
+        <v>4</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
@@ -7866,7 +7870,7 @@
         <v>10049</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -7899,7 +7903,7 @@
         <v>10050</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -7911,10 +7915,10 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="G52">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="H52">
         <v>2000</v>
@@ -7932,25 +7936,25 @@
         <v>10051</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>100</v>
+        <v>7500</v>
       </c>
       <c r="G53">
-        <v>50</v>
+        <v>3750</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
@@ -7965,7 +7969,7 @@
         <v>10052</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -7977,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G54">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -7998,7 +8002,7 @@
         <v>10053</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -8010,10 +8014,10 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G55">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -8031,7 +8035,7 @@
         <v>10054</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -8043,13 +8047,13 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G56">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="b">
         <v>0</v>
@@ -8064,7 +8068,7 @@
         <v>10055</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -8076,13 +8080,13 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="G57">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
@@ -8097,7 +8101,7 @@
         <v>10056</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -8109,10 +8113,10 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G58">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -8130,7 +8134,7 @@
         <v>10057</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -8142,10 +8146,10 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G59">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -8163,7 +8167,7 @@
         <v>10058</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -8175,13 +8179,13 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="G60">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>
@@ -8196,7 +8200,7 @@
         <v>10059</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -8214,7 +8218,7 @@
         <v>150</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
@@ -8229,7 +8233,7 @@
         <v>10060</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -8241,13 +8245,13 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G62">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
@@ -8262,7 +8266,7 @@
         <v>10061</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -8274,13 +8278,13 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G63">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -8295,7 +8299,7 @@
         <v>10062</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -8307,10 +8311,10 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G64">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -8328,7 +8332,7 @@
         <v>10063</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -8346,7 +8350,7 @@
         <v>150</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
@@ -8357,11 +8361,11 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
-        <f t="shared" ref="A66:A75" si="1">ROW()-2+10000</f>
+        <f t="shared" si="0"/>
         <v>10064</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -8373,10 +8377,10 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G66">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -8390,11 +8394,11 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A67:A76" si="1">ROW()-2+10000</f>
         <v>10065</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -8406,10 +8410,10 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G67">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -8427,7 +8431,7 @@
         <v>10066</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -8439,10 +8443,10 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G68">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -8460,7 +8464,7 @@
         <v>10067</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -8472,10 +8476,10 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G69">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -8493,7 +8497,7 @@
         <v>10068</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -8505,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="G70">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -8526,7 +8530,7 @@
         <v>10069</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -8538,10 +8542,10 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="G71">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -8559,7 +8563,7 @@
         <v>10070</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -8571,10 +8575,10 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="G72">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -8592,7 +8596,7 @@
         <v>10071</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -8604,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G73">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -8625,7 +8629,7 @@
         <v>10072</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -8658,30 +8662,63 @@
         <v>10073</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>500</v>
+      </c>
+      <c r="G75">
+        <v>250</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>10074</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
         <v>700</v>
       </c>
-      <c r="G75">
+      <c r="G76">
         <v>350</v>
       </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75">
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C4697B-0206-4185-BE2D-B5CD42F3D2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5647C938-3FBE-4EAE-96BA-60A106A827AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="360" windowWidth="24420" windowHeight="14295" tabRatio="804" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="1305" windowWidth="24420" windowHeight="14295" tabRatio="804" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="164">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -679,6 +679,18 @@
   </si>
   <si>
     <t>measuring spoon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>black_chocolate_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soda_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>citric_acid</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6201,7 +6213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DBDC14-7E25-4116-BA5C-8148F52CCF05}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -8731,10 +8743,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F083EA-800F-48D3-B24D-32DC46FC256B}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8781,7 +8793,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f t="shared" ref="A2:A6" si="0">ROW()-2+20000</f>
+        <f t="shared" ref="A2:A7" si="0">ROW()-2+20000</f>
         <v>20000</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -8803,7 +8815,7 @@
         <v>15</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -8818,22 +8830,22 @@
         <v>20001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="C3">
         <v>50</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -8851,22 +8863,22 @@
         <v>20002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>50</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -8884,22 +8896,22 @@
         <v>20003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3500</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -8917,22 +8929,22 @@
         <v>20004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="G6">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -8946,23 +8958,23 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" ref="A7:A9" si="1">ROW()-2+20000</f>
+        <f t="shared" si="0"/>
         <v>20005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G7">
         <v>250</v>
@@ -8979,11 +8991,11 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A8:A11" si="1">ROW()-2+20000</f>
         <v>20006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -8995,10 +9007,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="G8">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -9016,30 +9028,96 @@
         <v>20007</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1300</v>
+      </c>
+      <c r="G9">
+        <v>650</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>20008</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>3000</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>1500</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>20009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>800</v>
+      </c>
+      <c r="G11">
+        <v>400</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>1</v>
       </c>
     </row>
@@ -9052,10 +9130,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6001720-9AA1-466F-8E06-D372A3A538C0}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9102,7 +9180,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f t="shared" ref="A2:A42" si="0">ROW()-2+30000</f>
+        <f t="shared" ref="A2:A43" si="0">ROW()-2+30000</f>
         <v>30000</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -10294,7 +10372,7 @@
         <v>30036</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -10306,13 +10384,13 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="G38">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -10327,7 +10405,7 @@
         <v>30037</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -10339,13 +10417,13 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="G39">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -10360,7 +10438,7 @@
         <v>30038</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -10372,10 +10450,10 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G40">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -10393,7 +10471,7 @@
         <v>30039</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -10426,30 +10504,63 @@
         <v>30040</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>500</v>
+      </c>
+      <c r="G42">
+        <v>250</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>30041</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
         <v>700</v>
       </c>
-      <c r="G42">
+      <c r="G43">
         <v>350</v>
       </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42">
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5647C938-3FBE-4EAE-96BA-60A106A827AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E40EE9-48B0-4527-9975-3F6F5D0BDFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="1305" windowWidth="24420" windowHeight="14295" tabRatio="804" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2430" yWindow="750" windowWidth="24420" windowHeight="14295" tabRatio="804" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="169">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -691,6 +691,26 @@
   </si>
   <si>
     <t>citric_acid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>juice_mixer_high</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sponge_cutter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>beans_crusher</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cakemold_black</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>potato</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3591,10 +3611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3673,7 +3693,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A23" si="0">ROW()-2+1000</f>
+        <f t="shared" ref="A3:A24" si="0">ROW()-2+1000</f>
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3860,7 +3880,7 @@
         <v>10</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -3926,7 +3946,7 @@
         <v>75</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -3941,7 +3961,7 @@
         <v>1009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -3953,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -3974,7 +3994,7 @@
         <v>1010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -3986,13 +4006,13 @@
         <v>0</v>
       </c>
       <c r="F12">
+        <v>40</v>
+      </c>
+      <c r="G12">
         <v>20</v>
       </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -4007,7 +4027,7 @@
         <v>1011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>50</v>
@@ -4019,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -4040,25 +4060,25 @@
         <v>1012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>50</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -4073,22 +4093,22 @@
         <v>1013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G15">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -4106,7 +4126,7 @@
         <v>1014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -4118,10 +4138,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="G16">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -4139,7 +4159,7 @@
         <v>1015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4151,10 +4171,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G17">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -4172,22 +4192,22 @@
         <v>1016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G18">
-        <v>1000</v>
+        <v>125</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -4205,7 +4225,7 @@
         <v>1017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -4217,13 +4237,13 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G19">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -4238,7 +4258,7 @@
         <v>1018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4250,13 +4270,13 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="G20">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -4271,22 +4291,22 @@
         <v>1019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="G21">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -4304,7 +4324,7 @@
         <v>1020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4316,10 +4336,10 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G22">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -4337,30 +4357,63 @@
         <v>1021</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>300</v>
+      </c>
+      <c r="G23">
+        <v>150</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>1022</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>500</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>250</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>1</v>
       </c>
     </row>
@@ -6213,8 +6266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DBDC14-7E25-4116-BA5C-8148F52CCF05}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8743,10 +8796,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F083EA-800F-48D3-B24D-32DC46FC256B}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8793,7 +8846,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f t="shared" ref="A2:A7" si="0">ROW()-2+20000</f>
+        <f t="shared" ref="A2:A8" si="0">ROW()-2+20000</f>
         <v>20000</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -8962,22 +9015,22 @@
         <v>20005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G7">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -8991,23 +9044,23 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" ref="A8:A11" si="1">ROW()-2+20000</f>
+        <f t="shared" si="0"/>
         <v>20006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G8">
         <v>250</v>
@@ -9024,11 +9077,11 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A9:A12" si="1">ROW()-2+20000</f>
         <v>20007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -9040,10 +9093,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="G9">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -9061,7 +9114,7 @@
         <v>20008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -9073,10 +9126,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="G10">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -9094,30 +9147,63 @@
         <v>20009</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3000</v>
+      </c>
+      <c r="G11">
+        <v>1500</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>20010</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>800</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>400</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>1</v>
       </c>
     </row>
@@ -9130,10 +9216,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6001720-9AA1-466F-8E06-D372A3A538C0}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9180,7 +9266,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f t="shared" ref="A2:A43" si="0">ROW()-2+30000</f>
+        <f t="shared" ref="A2:A29" si="0">ROW()-2+30000</f>
         <v>30000</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -9415,25 +9501,25 @@
         <v>30007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="C9">
         <v>50</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -9448,25 +9534,25 @@
         <v>30008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>50</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -9481,25 +9567,25 @@
         <v>30009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>50</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -9514,25 +9600,25 @@
         <v>30010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G12">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -9547,25 +9633,25 @@
         <v>30011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>15000</v>
       </c>
       <c r="G13">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -9580,25 +9666,25 @@
         <v>30012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>8000</v>
       </c>
       <c r="G14">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -9613,25 +9699,25 @@
         <v>30013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="G15">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -9646,25 +9732,25 @@
         <v>30014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>7500</v>
       </c>
       <c r="G16">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -9679,22 +9765,22 @@
         <v>30015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C17">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G17">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -9712,22 +9798,22 @@
         <v>30016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G18">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -9745,22 +9831,22 @@
         <v>30017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G19">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -9778,22 +9864,22 @@
         <v>30018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G20">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -9811,22 +9897,22 @@
         <v>30019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="C21">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="G21">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -9844,22 +9930,22 @@
         <v>30020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G22">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -9877,7 +9963,7 @@
         <v>30021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -9889,13 +9975,13 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G23">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -9910,7 +9996,7 @@
         <v>30022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -9922,13 +10008,13 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>150</v>
+        <v>7000</v>
       </c>
       <c r="G24">
-        <v>75</v>
+        <v>3500</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -9943,7 +10029,7 @@
         <v>30023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -9955,10 +10041,10 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="G25">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -9976,7 +10062,7 @@
         <v>30024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -9988,10 +10074,10 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>250</v>
+        <v>3000</v>
       </c>
       <c r="G26">
-        <v>125</v>
+        <v>1500</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -10009,7 +10095,7 @@
         <v>30025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -10021,13 +10107,13 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="G27">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -10042,7 +10128,7 @@
         <v>30026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -10054,13 +10140,13 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G28">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -10075,7 +10161,7 @@
         <v>30027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -10087,480 +10173,18 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>120</v>
+        <v>700</v>
       </c>
       <c r="G29">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>30028</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>100</v>
-      </c>
-      <c r="G30">
-        <v>50</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>30029</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>300</v>
-      </c>
-      <c r="G31">
-        <v>150</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>30030</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>800</v>
-      </c>
-      <c r="G32">
-        <v>400</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>30031</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>500</v>
-      </c>
-      <c r="G33">
-        <v>250</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>30032</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>300</v>
-      </c>
-      <c r="G34">
-        <v>150</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>30033</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>300</v>
-      </c>
-      <c r="G35">
-        <v>150</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>30034</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>2000</v>
-      </c>
-      <c r="G36">
-        <v>1000</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>30035</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1000</v>
-      </c>
-      <c r="G37">
-        <v>500</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>30036</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>7000</v>
-      </c>
-      <c r="G38">
-        <v>3500</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>30037</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>10000</v>
-      </c>
-      <c r="G39">
-        <v>5000</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>30038</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>3000</v>
-      </c>
-      <c r="G40">
-        <v>1500</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>30039</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>500</v>
-      </c>
-      <c r="G41">
-        <v>250</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>30040</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>500</v>
-      </c>
-      <c r="G42">
-        <v>250</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>30041</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>700</v>
-      </c>
-      <c r="G43">
-        <v>350</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43">
         <v>1</v>
       </c>
     </row>
@@ -10576,7 +10200,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E40EE9-48B0-4527-9975-3F6F5D0BDFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1916FEE0-2B14-45A3-808C-AE3F9D4DE612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="750" windowWidth="24420" windowHeight="14295" tabRatio="804" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2955" yWindow="660" windowWidth="24420" windowHeight="14295" tabRatio="804" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -3614,7 +3614,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3973,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>1</v>

--- a/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1916FEE0-2B14-45A3-808C-AE3F9D4DE612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00ACFB7-C88F-41A1-872A-A0F6B7212721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="660" windowWidth="24420" windowHeight="14295" tabRatio="804" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="765" windowWidth="24420" windowHeight="14295" tabRatio="804" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -3613,7 +3613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -8798,8 +8798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F083EA-800F-48D3-B24D-32DC46FC256B}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9000,7 +9000,7 @@
         <v>50</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00ACFB7-C88F-41A1-872A-A0F6B7212721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1856AC-A2A3-4B7D-9653-963F425F02A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="765" windowWidth="24420" windowHeight="14295" tabRatio="804" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="25575" windowHeight="14325" tabRatio="804" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -678,10 +678,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>measuring spoon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>black_chocolate_recipi</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -711,6 +707,10 @@
   </si>
   <si>
     <t>potato</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>measuring_spoon</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3961,7 +3961,7 @@
         <v>1009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -6266,8 +6266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DBDC14-7E25-4116-BA5C-8148F52CCF05}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7440,7 +7440,7 @@
         <v>10034</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -7986,7 +7986,7 @@
         <v>2500</v>
       </c>
       <c r="H52">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
@@ -8019,7 +8019,7 @@
         <v>3750</v>
       </c>
       <c r="H53">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
@@ -8798,7 +8798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F083EA-800F-48D3-B24D-32DC46FC256B}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -8883,7 +8883,7 @@
         <v>20001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -9180,7 +9180,7 @@
         <v>20010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -9633,7 +9633,7 @@
         <v>30011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -9666,7 +9666,7 @@
         <v>30012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -9699,7 +9699,7 @@
         <v>30013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -9732,7 +9732,7 @@
         <v>30014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -9996,7 +9996,7 @@
         <v>30022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C24">
         <v>1</v>

--- a/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1856AC-A2A3-4B7D-9653-963F425F02A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC6FE06-D294-4D64-B6BE-D9D4A071C3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="25575" windowHeight="14325" tabRatio="804" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="1185" windowWidth="25575" windowHeight="14325" tabRatio="804" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -6266,8 +6266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DBDC14-7E25-4116-BA5C-8148F52CCF05}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7485,10 +7485,10 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G37">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="H37">
         <v>1</v>

--- a/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC6FE06-D294-4D64-B6BE-D9D4A071C3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6039884-C2D3-4232-94CD-B9380D5619FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="1185" windowWidth="25575" windowHeight="14325" tabRatio="804" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2955" yWindow="1065" windowWidth="25575" windowHeight="14325" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="169">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -1083,7 +1083,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2900,7 +2902,7 @@
         <v>100</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="b">
         <v>0</v>
@@ -6266,8 +6268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DBDC14-7E25-4116-BA5C-8148F52CCF05}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8283,7 +8285,7 @@
         <v>150</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
@@ -8796,10 +8798,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F083EA-800F-48D3-B24D-32DC46FC256B}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9077,7 +9079,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" ref="A9:A12" si="1">ROW()-2+20000</f>
+        <f t="shared" ref="A9:A13" si="1">ROW()-2+20000</f>
         <v>20007</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -9147,7 +9149,7 @@
         <v>20009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -9159,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="G11">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -9180,30 +9182,63 @@
         <v>20010</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>3000</v>
+      </c>
+      <c r="G12">
+        <v>1500</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>20011</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>800</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>400</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6039884-C2D3-4232-94CD-B9380D5619FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ACBF3B-DA4B-450D-96C7-1D6876A81ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="1065" windowWidth="25575" windowHeight="14325" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="25560" windowHeight="14325" tabRatio="804" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="173">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -711,6 +711,22 @@
   </si>
   <si>
     <t>measuring_spoon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>potato_aidaho</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>potato_north</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>komugiko_good</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>butter_good</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1083,7 +1099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2154E2-30EB-484D-B7C9-48FD8223AE77}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
@@ -3613,10 +3629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6706A2-EDB2-4593-B696-68963F977CA9}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3695,7 +3711,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A24" si="0">ROW()-2+1000</f>
+        <f t="shared" ref="A3:A26" si="0">ROW()-2+1000</f>
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3996,7 +4012,7 @@
         <v>1010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -4008,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -4029,7 +4045,7 @@
         <v>1011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>170</v>
       </c>
       <c r="C13">
         <v>50</v>
@@ -4041,13 +4057,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -4062,7 +4078,7 @@
         <v>1012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C14">
         <v>50</v>
@@ -4074,13 +4090,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -4095,13 +4111,13 @@
         <v>1013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>50</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4110,10 +4126,10 @@
         <v>20</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -4128,25 +4144,25 @@
         <v>1014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -4161,22 +4177,22 @@
         <v>1015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="G17">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -4194,7 +4210,7 @@
         <v>1016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -4206,10 +4222,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="G18">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -4227,22 +4243,22 @@
         <v>1017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="G19">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -4260,25 +4276,25 @@
         <v>1018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="G20">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -4293,7 +4309,7 @@
         <v>1019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4305,10 +4321,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G21">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -4326,25 +4342,25 @@
         <v>1020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="G22">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -4359,22 +4375,22 @@
         <v>1021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="G23">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -4392,30 +4408,96 @@
         <v>1022</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>200</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>1023</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>300</v>
+      </c>
+      <c r="G25">
+        <v>150</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>500</v>
       </c>
-      <c r="G24">
+      <c r="G26">
         <v>250</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>1</v>
       </c>
     </row>
@@ -6268,8 +6350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DBDC14-7E25-4116-BA5C-8148F52CCF05}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8798,10 +8880,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F083EA-800F-48D3-B24D-32DC46FC256B}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8848,11 +8930,11 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f t="shared" ref="A2:A8" si="0">ROW()-2+20000</f>
+        <f t="shared" ref="A2:A4" si="0">ROW()-2+20000</f>
         <v>20000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -8885,7 +8967,7 @@
         <v>20001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -8897,13 +8979,13 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -8918,22 +9000,22 @@
         <v>20002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="C4">
         <v>50</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -8947,11 +9029,11 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A5:A11" si="1">ROW()-2+20000</f>
         <v>20003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -8963,10 +9045,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -8980,29 +9062,29 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3500</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -9013,26 +9095,26 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1500</v>
+        <v>30</v>
       </c>
       <c r="G7">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -9046,26 +9128,26 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
         <v>6</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>3000</v>
-      </c>
-      <c r="G8">
-        <v>250</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -9079,29 +9161,29 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" ref="A9:A13" si="1">ROW()-2+20000</f>
+        <f t="shared" si="1"/>
         <v>20007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="G9">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -9116,22 +9198,22 @@
         <v>20008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G10">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -9149,22 +9231,22 @@
         <v>20009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="G11">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -9178,11 +9260,11 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A12:A16" si="2">ROW()-2+20000</f>
         <v>20010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -9194,10 +9276,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G12">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -9211,34 +9293,133 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20011</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1300</v>
+      </c>
+      <c r="G13">
+        <v>650</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>20012</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>300</v>
+      </c>
+      <c r="G14">
+        <v>150</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>20013</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3000</v>
+      </c>
+      <c r="G15">
+        <v>1500</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>20014</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>800</v>
       </c>
-      <c r="G13">
+      <c r="G16">
         <v>400</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_shopItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ACBF3B-DA4B-450D-96C7-1D6876A81ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AB50BA-0500-420D-AF81-B466DE0653B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="25560" windowHeight="14325" tabRatio="804" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="1005" windowWidth="25560" windowHeight="14325" tabRatio="804" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemDB_1" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="176">
   <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
@@ -727,6 +727,18 @@
   </si>
   <si>
     <t>butter_good</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cakemold_black_square</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fork</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>siboribukuro_montblanc</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6350,8 +6362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DBDC14-7E25-4116-BA5C-8148F52CCF05}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8883,7 +8895,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9177,10 +9189,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="G9">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -9432,10 +9444,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6001720-9AA1-466F-8E06-D372A3A538C0}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9482,7 +9494,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f t="shared" ref="A2:A29" si="0">ROW()-2+30000</f>
+        <f t="shared" ref="A2:A33" si="0">ROW()-2+30000</f>
         <v>30000</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -9882,7 +9894,7 @@
         <v>30012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -9894,13 +9906,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="G14">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -9915,7 +9927,7 @@
         <v>30013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -9927,13 +9939,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G15">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -9948,7 +9960,7 @@
         <v>30014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -9960,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="G16">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -9981,25 +9993,25 @@
         <v>30015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="G17">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -10014,25 +10026,25 @@
         <v>30016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>200</v>
+        <v>7500</v>
       </c>
       <c r="G18">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -10047,22 +10059,22 @@
         <v>30017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>250</v>
+        <v>7500</v>
       </c>
       <c r="G19">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -10080,22 +10092,22 @@
         <v>30018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="G20">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -10113,7 +10125,7 @@
         <v>30019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -10125,13 +10137,13 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="G21">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -10146,7 +10158,7 @@
         <v>30020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -10158,13 +10170,13 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="G22">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -10179,7 +10191,7 @@
         <v>30021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -10191,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G23">
-        <v>500</v>
+        <v>125</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -10212,7 +10224,7 @@
         <v>30022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -10224,10 +10236,10 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>7000</v>
+        <v>100</v>
       </c>
       <c r="G24">
-        <v>3500</v>
+        <v>50</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -10245,7 +10257,7 @@
         <v>30023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -10257,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="G25">
-        <v>5000</v>
+        <v>150</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -10278,7 +10290,7 @@
         <v>30024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -10290,10 +10302,10 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G26">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -10311,7 +10323,7 @@
         <v>30025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -10323,10 +10335,10 @@
         <v>0</v>
       </c>
       <c r="F27">
+        <v>1000</v>
+      </c>
+      <c r="G27">
         <v>500</v>
-      </c>
-      <c r="G27">
-        <v>250</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -10344,7 +10356,7 @@
         <v>30026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -10356,10 +10368,10 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>500</v>
+        <v>7000</v>
       </c>
       <c r="G28">
-        <v>250</v>
+        <v>3500</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -10377,30 +10389,162 @@
         <v>30027</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>10000</v>
+      </c>
+      <c r="G29">
+        <v>5000</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>30028</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>3000</v>
+      </c>
+      <c r="G30">
+        <v>1500</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30029</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>500</v>
+      </c>
+      <c r="G31">
+        <v>250</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>30030</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>500</v>
+      </c>
+      <c r="G32">
+        <v>250</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>30031</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
         <v>700</v>
       </c>
-      <c r="G29">
+      <c r="G33">
         <v>350</v>
       </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29">
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>1</v>
       </c>
     </row>
